--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1134"/>
+  <dimension ref="A1:I1135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41818,6 +41818,41 @@
         </is>
       </c>
     </row>
+    <row r="1135">
+      <c r="A1135" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1135" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1135" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1135" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1135"/>
+  <dimension ref="A1:I1136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41853,6 +41853,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1136">
+      <c r="A1136" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1136" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1136" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1136"/>
+  <dimension ref="A1:I1137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41888,6 +41888,43 @@
         <v>500</v>
       </c>
     </row>
+    <row r="1137">
+      <c r="A1137" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1137" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1137" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1137" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1137"/>
+  <dimension ref="A1:I1138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41925,6 +41925,41 @@
         </is>
       </c>
     </row>
+    <row r="1138">
+      <c r="A1138" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1138" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1138" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>1400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1138"/>
+  <dimension ref="A1:I1139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41960,6 +41960,41 @@
         <v>1400</v>
       </c>
     </row>
+    <row r="1139">
+      <c r="A1139" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1139" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1139" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>17800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1139"/>
+  <dimension ref="A1:I1140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41995,6 +41995,43 @@
         <v>17800</v>
       </c>
     </row>
+    <row r="1140">
+      <c r="A1140" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1140" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1140" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1140" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1140" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1140"/>
+  <dimension ref="A1:I1141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42032,6 +42032,43 @@
         </is>
       </c>
     </row>
+    <row r="1141">
+      <c r="A1141" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1141" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1141" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1141" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1141"/>
+  <dimension ref="A1:I1142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42069,6 +42069,43 @@
         </is>
       </c>
     </row>
+    <row r="1142">
+      <c r="A1142" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1142" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1142" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1142" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1142"/>
+  <dimension ref="A1:I1143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42106,6 +42106,43 @@
         </is>
       </c>
     </row>
+    <row r="1143">
+      <c r="A1143" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1143" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1143" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1143" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1143"/>
+  <dimension ref="A1:I1145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42143,6 +42143,80 @@
         </is>
       </c>
     </row>
+    <row r="1144">
+      <c r="A1144" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1144" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1144" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1144" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1145" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1145" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1145" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1145"/>
+  <dimension ref="A1:I1147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42217,6 +42217,80 @@
         </is>
       </c>
     </row>
+    <row r="1146">
+      <c r="A1146" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1146" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1146" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1146" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1147" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1147" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1147" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1147"/>
+  <dimension ref="A1:I1148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42291,6 +42291,43 @@
         </is>
       </c>
     </row>
+    <row r="1148">
+      <c r="A1148" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1148" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1148" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1148" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1148"/>
+  <dimension ref="A1:I1149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42328,6 +42328,41 @@
         </is>
       </c>
     </row>
+    <row r="1149">
+      <c r="A1149" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1149" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1149" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>36400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1149"/>
+  <dimension ref="A1:I1150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42363,6 +42363,41 @@
         <v>36400</v>
       </c>
     </row>
+    <row r="1150">
+      <c r="A1150" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1150" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>3600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1150"/>
+  <dimension ref="A1:I1151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42398,6 +42398,43 @@
         <v>3600</v>
       </c>
     </row>
+    <row r="1151">
+      <c r="A1151" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1151" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1151" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1151" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1151"/>
+  <dimension ref="A1:I1153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42435,6 +42435,78 @@
         </is>
       </c>
     </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1152" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1152" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1153" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1153" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1153" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1153"/>
+  <dimension ref="A1:I1154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42507,6 +42507,43 @@
         </is>
       </c>
     </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1154" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1154" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1154" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1154"/>
+  <dimension ref="A1:I1155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42544,6 +42544,43 @@
         </is>
       </c>
     </row>
+    <row r="1155">
+      <c r="A1155" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1155" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1155" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1155" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1446"/>
+  <dimension ref="A1:I1447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52766,6 +52766,43 @@
         </is>
       </c>
     </row>
+    <row r="1447">
+      <c r="A1447" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1447" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1447" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1447" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1447" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1447" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1447" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1447" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1447" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1447"/>
+  <dimension ref="A1:I1448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52803,6 +52803,43 @@
         </is>
       </c>
     </row>
+    <row r="1448">
+      <c r="A1448" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1448" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1448" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1448" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1448" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1448" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1448" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1448" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1448" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1448"/>
+  <dimension ref="A1:I1449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52840,6 +52840,43 @@
         </is>
       </c>
     </row>
+    <row r="1449">
+      <c r="A1449" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1449" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1449" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1449" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1449" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1449" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1449" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1449" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1449" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1449"/>
+  <dimension ref="A1:I1450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52877,6 +52877,43 @@
         </is>
       </c>
     </row>
+    <row r="1450">
+      <c r="A1450" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1450" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1450" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1450" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1450" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1450" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1450" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1450" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1450" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1450"/>
+  <dimension ref="A1:I1451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52914,6 +52914,43 @@
         </is>
       </c>
     </row>
+    <row r="1451">
+      <c r="A1451" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1451" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1451" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1451" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1451" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1451" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1451" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1451" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1451" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1451"/>
+  <dimension ref="A1:I1452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52951,6 +52951,43 @@
         </is>
       </c>
     </row>
+    <row r="1452">
+      <c r="A1452" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1452" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1452" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1452" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1452" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1452" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1452" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1452" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1452" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1452"/>
+  <dimension ref="A1:I1453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52988,6 +52988,43 @@
         </is>
       </c>
     </row>
+    <row r="1453">
+      <c r="A1453" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1453" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1453" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1453" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1453" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1453" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1453" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1453" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1453" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1453"/>
+  <dimension ref="A1:I1454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53025,6 +53025,43 @@
         </is>
       </c>
     </row>
+    <row r="1454">
+      <c r="A1454" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1454" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1454" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1454" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1454" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1454" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1454" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1454" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1454" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1454"/>
+  <dimension ref="A1:I1455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53062,6 +53062,43 @@
         </is>
       </c>
     </row>
+    <row r="1455">
+      <c r="A1455" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1455" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1455" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1455" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1455" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1455" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1455" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1455" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1455" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1455"/>
+  <dimension ref="A1:I1456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53099,6 +53099,43 @@
         </is>
       </c>
     </row>
+    <row r="1456">
+      <c r="A1456" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1456" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1456" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1456" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1456" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1456" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1456" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1456" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1456" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1456"/>
+  <dimension ref="A1:I1457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53136,6 +53136,43 @@
         </is>
       </c>
     </row>
+    <row r="1457">
+      <c r="A1457" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1457" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1457" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1457" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1457" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1457" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1457" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1457" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1457" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1457"/>
+  <dimension ref="A1:I1458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53173,6 +53173,43 @@
         </is>
       </c>
     </row>
+    <row r="1458">
+      <c r="A1458" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1458" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1458" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1458" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1458" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1458" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1458" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1458" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1458" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1458"/>
+  <dimension ref="A1:I1459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53210,6 +53210,43 @@
         </is>
       </c>
     </row>
+    <row r="1459">
+      <c r="A1459" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1459" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1459" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1459" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1459" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1459" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1459" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1459" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1459" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8052.xlsx
+++ b/data/8052.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1459"/>
+  <dimension ref="A1:I1460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53247,6 +53247,43 @@
         </is>
       </c>
     </row>
+    <row r="1460">
+      <c r="A1460" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1460" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1460" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="D1460" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="E1460" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1460" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1460" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1460" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1460" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
